--- a/500all/speech_level/speeches_CHRG-114hhrg98580.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98580.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="555">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>409888</t>
   </si>
   <si>
-    <t>Bill Shuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shuster. The Committee on Transportation and Infrastructure will come to order. I would like to welcome everybody this morning. Looks like we have got a packed house, a lot of interest in the hearing today on reviewing the ATC [air traffic control] reform proposals. Again, I want to welcome everybody here.    Last week Chairman LoBiondo and myself introduced the AIRR Act, the Aviation Innovation, Reform, and Reauthorization Act of 2016. This bill provides transformational reform of the U.S. aviation system, something that is absolutely necessary to modernize our air traffic control system, to ensure the system is both safe and efficient, and--let me say that again, safe is the number-one priority of this effort, and has always been of the effort at the FAA [Federal Aviation Administration], but we need to make sure it is efficient, and presently it is not efficient, and studies I see, it is working backward from becoming more efficient--and to ensure America leads the world in this industry, an industry that we invented.    A key reform in this bill takes the ATC out of the Federal Government, and establishes a federally chartered, independent, not-for-profit Corporation to provide that service. This Corporation will be governed by a board representing the system's users. Today's hearing focuses on the ATC reform piece of the bill.    I believe Ranking Member DeFazio and I agree that the status quo at the FAA is unacceptable, and that real change is necessary. We have worked together on large parts of this bill in the same bipartisan spirit as other bills this committee has passed and sent on to the President. I think we are on the same page on many reforms and provisions.    We do have an honest policy disagreement on the approach to fixing ATC. I have been talking about my ideas for improving ATC for over 2 years, and I have put them on the table. I know the ranking member has some ideas, as well. Today is the opportunity for the committee to discuss the ideas we have put forward.    As I said, I believe we have to do better. Delays, congestions, and inefficiencies cost our economy $30 billion a year. And in the next decade we will be up to 1 billion people, 1 billion passengers flying. And without real improvement, the system is only going to get worse. Unfortunately, FAA has proven it can't modernize the air traffic system. Delays, cost overruns, and setbacks have been going on for 30 years.    And we just got the newest report from the DOT OIG [U.S. Department of Transportation Office of Inspector General]. January 15th it came out. The FAA reforms have not achieved expected cost, efficiency, and modernization outcomes. And they did this looking back over the last 20 years. And if you go back even further, and report after report has said the FAA is incapable of developing and rolling out and modernizing the air traffic control system, among other things, among things they have--1995 we exempted them from a Federal human--or the personnel hiring/firing under the Federal Government, we exempted them from that.    And today we hear about the need to hire 3,000 traffic controllers roughly a year, and they are only able to do about half of it. So throughout the system, throughout the reforms they have had available to them, they have not been able to do that. And, as I said, this is just the latest report from the inspector general.    The IG [inspector general] has testified here that, while initial cost estimates for NextGen were about $40 billion, and the cost would double or triple and take a decade or more before it could be--possibly be deployed. So instead of costing $40 billion and hopefully finishing in 2025, realistically we are looking at upward of over $100 billion, and a completion in maybe 2035 or beyond.    Without a doubt, Congress and the political interference are part of this problem, whether it is the 23 extensions we faced before, the sequestration, Government shutdown, congressional--Members of Congress weighing in when the agency tries to streamline, when it tries to close a facility or consolidate a facility, and some Member of Congress, powerful Member of Congress says, ``You are not going to close down my facility,'' it has caused big problems when you are trying to run an operation that is in need of consolidations, in need of reducing its footprint because of the technology that should be available to do that. So Congress has been a problem.    But the basic problem is that the FAA is a huge bureaucracy, it is not a high-tech service provider. That is what we are talking about, telecommunications provider to the flying public. The planes are up in the air, the folks on the ground, making sure they are communicating to keep that airspace safe. Congress has tried procurement and personnel reforms at FAA, which I have mentioned, and they failed to implement them.    The time for piecemeal reform is over. For 30 years we have tried this, a little bit here, a little bit there, even some big stuff. But it just was rearranging the deck chairs on the Titanic.    The AIRR Act takes air traffic control out of the FAA and transitions it to a new Corporation, a not-for-profit Corporation, over the next 3 years. It's a 6-year bill, 3 years for transition and then the next 3 years to--for the startup of this new entity.    And I just want to mention the Canadians and the Germans and the Australians across the country--were 50 of them--have done something very similar to what we are talking about here today. But I just want to say that August of this year, the Canadians will launch their first satellites into space. And by the end of 2017, they will have over 70 satellites launched. They will have their GPS [Global Positioning System] up in space. Currently, today, we can only see 30 percent of the airspace on our current technology. When they deployed those 70 or so satellites, they will be able to see 100 percent of the airspace in the globe, the Canadians.    I am told there are already 15 or 16 countries that have signed up for their services. So the Canadians, Nav Canada and their partners, they are developing this system. I believe they are going to become the dominant controller of airspace in the world. They are going to be able to fly planes over the North Atlantic and over the Pacific, straighter lines, closer together, more efficiently. And that is when we are going to really see our loss in the leadership in the world, when it comes to controlling airspace and being the gold standard.    Again, this Corporation we are setting up is completely independent of the Federal Government. This is not a Government Corporation, a quasi-governmental entity, or a GSE [Government-Sponsored Enterprise]. It is not that. The Federal Government will not back the obligations, the financial obligations, for this Corporation. The Corporation will simply provide a service.    The bill does not give the airspace to the Corporation; that remains the public trust. That belongs to the American people. And the FAA remains absolutely responsible for regulating the airspace and aviation safety.    We do this in a way that protects the GA [general aviation] and the rural communities. Noncommercial GA is exempted from fees or charges. Let me repeat that again, because everywhere I go in this town, it doesn't seem to resonate with people. Noncommercial general aviation is exempt from fees or charges. Now, there are some folks in this room and around town that don't think that is right, but I think that is the fair way to move forward. And the Corporation can't tie airspace access to what users pay. Again, can't tie their access to what they pay. In fact, in talking to the folks in Canada, the GA community has had a very positive experience up there.    This structure gets ATC away from the budget process and political decisionmaking. I know the notion goes against the establishment. We have already had some very senior Republicans on very important committees say, ``Oh, we can't do this,'' and that is, again, the establishment pushing back, saying we can't do this. We can do this. We need to do this. We must do this. And we can do what is best for the American aviation system if we show the political will.    And let me tell you, it is--this has not been an easy--I know a couple of you here at the witness stand have gone through some tough days and weeks. I appreciate you staying strong.    And this isn't a new idea. This idea--one of our folks' testimony today, Mr. Poole, he has been at that desk I don't know how many times over the last 30 years, talking about this. The Clinton administration tried to do it, the Bush administration tried to do it. And, since that time, since Clinton's time and Bush's time, it has become the global standard, having an independent air traffic control system, independent from the regulator.    ICAO [International Civil Aviation Organization], who is the--sort of sets the standards for the world, has said that is what we should be doing all over the country, over the world. And more than 50 other countries have successfully done this, with benefits across the board. Safety is maintained--in some cases it goes up, it is even safe. We have modernized systems, we have improved efficiencies and service, and costs have gone down.    We will see more effective use of the airspace, airspace capacity increased, more direct routes, which will save time and money, increased capacity, shorter flight times, reduced delays and cancellations, and reduced pollution and noise. With the operational efficiencies, I believe we can save billions of dollars in the new system like this.    And again, the FAA will focus on what it does best, and that is regulate safety of the system.    We started this process over 2 years ago. We have worked with stakeholders throughout the aviation community to address issues they have raised. In this bill, we have worked to streamline the certification process, address safety issues, improve passenger experience, provide robust funding for the AIP [Airport Improvement Program], and address the safety--integration of drones into the airspace.    Taken as a whole, the AIRR Act does what is best for all users of the system, and the future of U.S. aviation. I want our country to have the safest--or continue to have the safest aviation system in the world, as well as the most efficient, cost-effective, and advanced system. We don't have that today, but I believe we will under this bill.    So, with that, I would like to now recognize Ranking Member DeFazio for an opening statement.</t>
   </si>
   <si>
     <t>400100</t>
   </si>
   <si>
-    <t>Peter A. DeFazio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeFazio. Thank you, Mr. Chairman. I--Mr. Chairman, we have worked together on many issues that relate to FAA reauthorization, and I appreciate working together. And there is much agreement, a couple of disagreements outside of the area of ATO [Air Traffic Organization], which we will go through tomorrow.    The ATO is the major stumbling block, and I believe it jeopardizes all of the other work, the essential work in that bill that deals with drones and, you know, other safety issues, a whole host of issues: certification reform, which we have--been long overdue, which is crucial to keeping our lead and manufacturing and software that relates to aviation in the world. And I fear that this proposal jeopardizes that.    We do agree on enduring issues that Congress identified in the 1990s--1996 attempted to reform procurement and personnel at the FAA. The FAA blew it off. I will have targeted proposals on procurement and personnel, which I will offer tomorrow. And then, yes, there have been tremendous problems, and I believe, in part, NATCA [National Air Traffic Controllers Association] is here today because they are still really angry about sequestration shutdowns and layoffs that happened because of the budget shenanigans which were, of course, caused by the majority party.    Now, how do we protect ourselves against Congress is a big issue. This is one particular solution. I believe there is a better solution, because this one actually fails that test. I raised last summer the issue that this would be unconstitutional. We cannot devolve regulatory or ratemaking and other competitive impacting issues to a private entity under the Constitution. It is very, very clear we can't do that.    I was first blown off, but now the chairman's proposal actually recognizes it, and we have what I would call a Rube Goldberg, which I would like them to put up on the screen now.    [Slide]</t>
   </si>
   <si>
@@ -97,9 +91,6 @@
     <t>400244</t>
   </si>
   <si>
-    <t>Frank A. LoBiondo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LoBiondo. Good morning. Thank you, Chairman Shuster.    As was referenced, over the last 2 years the Subcommittee on Aviation has held more than 180 listening sessions, roundtables, and hearings on the state of the Nation's air traffic control system with stakeholders identifying the perpetual challenges the FAA has faced in modernizing the National Airspace System. And, as the chairman noticed, while we currently enjoy the safest air traffic control system in the world, it is no longer anywhere close to the most efficient.    The FAA has been attempting to modernize our safe yet antiquated ATC system since President Reagan's first year in office. Since that time the DOT Office of Inspector General, the Government Accountability Office, and numerous bipartisan Federal airline Commissions found that the FAA's progress with delivering planned NextGen capabilities has been plagued by significant delays, cost increases, and absence of promised benefits to the traveling public and industry stakeholders.    In testimony before the subcommittee in 2014, DOT Inspector General Scovel warned that the NextGen implementation costs for Government and industry--and this is the stuff that sort of makes your hair catch fire and your eyes pop out--initially estimated at $20 billion for each, could double or triple. So we are talking about possibly $40 billion or $60 billion. And that NextGen implementation may take an additional decade. That is what is at stake here.    Since 1981 we have invested over 70--7-0--$70 billion in taxpayer money to the air traffic control modernization, and yet we are still using essentially the same air traffic control system which is based on World War II-era technology. After $70 billion.    While stakeholders unanimously support NextGen, they have been unable to agree on how to address these well-documented implementation obstacles. As Chairman Shuster has stated, the committee has a historic opportunity to drive the transformational change needed to ensure that we have the very best ATC system in the world.    Three years of Federal budget disputes led the FAA decision in 2013 to furlough 10 percent of its air traffic control workforce, and nearly close 149 contract towers to meet sequester-driven budgetary cuts. According to a December 2015 report by GAO, budget uncertainty has also contributed to NextGen delays and cost overruns. Continued delays resulting from sequestration, employee furloughs, unpredictable continuing resolutions, and Government shutdowns have had a devastating impact on the FAA's ability to achieve transformational results.    Only 2 months ago we were voting here again to keep the Government open while the FAA, many of my constituents, more than 3,000 working at its Technical Center in my district, were forced to make preparations in the event they needed to shelve the projects and be ready for a shutdown. That is why the AIRR Act, we worked to ensure that critical projects and safety in the skies continue without interruption.    Included in the bill, section 241, will empower rather than stifle the employees involved in ATC modernization, particularly those at the FAA Tech Center. It will allow the Corporation to utilize the resources and extensive institutional expertise of the employees of the Tech Center to improve upon the already sterling safety record that we have all come to expect.    We are the only developed country whose ATC system can be a political football, frequently held hostage to Federal budget disputes like the sequester, which threatened not only the ongoing operations of the system, but also the successful implementation of NextGen. Unless the ATC reforms in the AIRR Act are enacted, we risk failure in delivering NextGen as it was promised to the traveling public.    I look forward to hearing from our witnesses on how the ATC reforms included in the AIRR Act will ensure we have the safest, most efficient, and modernized air traffic control system in the world. And I thank you, Mr. Chairman, for the opportunity.</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman. And thanks for agreeing to hold this hearing, and for the opportunity to discuss the proposal to privatize the ATC system.    Before we talk about that, I do want to thank you and Chairman LoBiondo, who have worked with Ranking Member DeFazio and myself, and all the Members on every other title, as well, in the FAA reauthorization bill that was introduced last week. As a result, the bill is full of bipartisan provisions to increase airport investment, to improve U.S. manufacturers' ability to get products to market, to integrate unmanned aircraft, and to improve air service for the traveling public. A majority of the bill is a product of bipartisan efforts that will move the country's aviation system forward in a big way.    However, I still continue to believe that privatizing the ATC in the U.S. would be a science experiment with a lot of potential to go wrong. I want to highlight two areas where I think the implications of this mistake are most evident and problematic.    The first deals with NextGen. Now, while we can acknowledge that the implementation has been slow and expensive, it is now moving forward, thanks in large part to Chairman LoBiondo's efforts. The FAA is finally reaching and passing important milestones on major industry priorities such as DataComm, multiple runway operations, and other things. So I guess I would just note that breaking apart the FAA at a time when it is making real and important strides as far as NextGen implementation would be unwise. I would say, in fact, that we are on a nonstop flight with NextGen implementation, but we are headed for a 7-year-plus layover with privatization.    The other area that causes me great concern, and where the proposal is only partially thought out at best, is what privatization would mean to the Department of Defense. Earlier this week I had the opportunity to speak with representatives from the Department of Defense about ATC privatization. The last conversation we had about this was in May, and the concerns have not changed. While they have a list, and I have a few of those that is in my statement there--so it is not an exhaustive list--I think it is critical for the committee to hear a few takeaways from that meeting.    First, the one thing that is clear to me about where DOD [U.S. Department of Defense] fits into ATC privatization is that we have very little clarity on this issue. DOD currently controls nearly 15 percent of the Nation's airspace. Not 15 percent of the flights, but 15 percent of the airspace. But this bill gives the Department a mere advisory role on the board of directors, a demotion from its current equal footing partnership with the FAA. The Department of Defense may have little to no say about routes and airspace because the bill does little to explain how the board would make these decisions with the DOD.    Additionally, after decades of Government-to-Government relationships, the FAA and the DOD conduct day-to-day ATC operations under the guidance of various MOUs [memorandums of understanding] and policy agreements. How would this relationship be handled under privatization? How would dispute resolution be settled? We aren't sure, because the bill is silent on these issues.    If the Corporation's goal is to maximize efficiency and reduce user fees, how would it maintain assets like primary radar that the DOD uses?    We are also--I'm not sure how special-use airspace will operate, how user fees will be charged to international state aircraft, or how joint civilian and military installations will handle air traffic. And the list doesn't stop there.    As we all know, the FAA's role in securing our national airspace is critical to homeland defense. This has been accomplished through longstanding and well-articulated agreements between the FAA and the DOD. I am concerned that entrusting this mission to a private-sector entity separate from the Government would be a reckless decision with potentially dire consequences that we may not have thought through yet, and they have not been fully aired.    DOD's role in this privatization is undeveloped, uncertain, and undermined. Giving DOD a mere advisory role with no other discussion about the challenges reminds me of the role that Coldplay had in the Super Bowl halftime show.    [Laughter]</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rinaldi</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rinaldi. Didn't realize I was going to be first. Thank you, Chairman Shuster, Ranking Member DeFazio, Chairman----</t>
   </si>
   <si>
@@ -148,9 +133,6 @@
     <t xml:space="preserve">    Mr. Shuster. Thank you very much.    Next up, Nick Calio, A4A.</t>
   </si>
   <si>
-    <t>Calio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Calio. Mr. Chairman and members of the committee, thank you for the opportunity to testify today. A4A commends this committee----</t>
   </si>
   <si>
@@ -163,18 +145,12 @@
     <t xml:space="preserve">    Mr. Shuster. Thank you.    Next we go to Mr. Ed Bolen, president and CEO of the National Business Aviation Association.    Ed, proceed.</t>
   </si>
   <si>
-    <t>Bolen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bolen. Well, thank you. I appreciate the opportunity to be here today.    It seems to me that, as we talk today about ATC reform, there are really three areas where we need to focus. First, we need to understand where we are today. Second, we need to understand where we want to be in the future. And, third, how best to get from where we are to where we want to be.    As Paul Rinaldi indicated in his statement, today the U.S. has the largest, the safest, the most diverse, the most complex, and the most efficient air transportation system in the world. It is currently enjoying the safest period of history that we have ever seen. But being the best today is not sufficient. In order for our country to thrive, we need to be the best 5, 10, 25 years from now. The question is how do we get there?    H.R. 4441, we believe, takes us down the wrong path. This bill takes our air traffic control system and turns it over to the big airlines. We think that is the wrong path. We think it is a dangerous path. We think it is a path that should be rejected, and here is why.    Our Nation's air traffic control system is a monopoly, and it will stay a monopoly, going forward. The airlines, for 30 years, have been lobbying Congress so that they can seize control of that natural monopoly and exert their authority over it. We think that is a fatally flawed concept. The public airspace belongs to the public, and it should be run for the public's benefit. Do we really think that, given control of this monopoly, the airlines would run it for every American's benefit? Reading the headlines over the past year would suggest that is probably not the case.    ``Airline consolidation hits small cities the hardest,'' wrote the Wall Street Journal. ``Justice Department investigating potential airline price collusion,'' wrote the Washington Post. ``Airline complaints on the rise'' was the headline in the Hill. ``Airlines reap record profits and passengers get peanuts.'' That appeared in the New York Times this past weekend.    Now, people have asked, ``If we give control to the airlines, what protections would consumers need, small towns need, general aviation need?'' But the very question itself is a tacit acknowledgment that protections are necessary. This is a little bit like someone saying, ``We want to put the fox in charge of the chicken coop. What do the chickens need in order to feel comfortable with that decision?'' We know that, ultimately, the fox is going to find its way around any protections, the chickens are going to be had. And when that happens, it is going to be too late to do anything about it.    When the full dangers of putting the airlines in charge of our Nation's air traffic control monopoly are understood, Congress will be left with no resource. We need to find a way forward. Status quo is not acceptable. But turning our air traffic control system over to the airlines is just a bad idea. It is a dangerous idea. We are talking about giving them unbridled authority to make decisions about access, about rates, charges, about infrastructure. This is a sweeping transfer of authority, it is breathtaking in its magnitude, and it is potentially deadly in its consequences.    We do not want to keep the status quo. We want to move forward. We don't want this path, however. We would advocate for targeted solutions to identified problems. We have talked about ways that we can address the funding issue. We are looking for ways to enhance business practices. We already know that the bill itself includes a lot of very important certification reforms.    As Mr. Larsen said, there is an awful lot that's very good in this bill. There is a lot of important stuff in this bill. But at the heart of it is this sweeping transfer of authority to the airlines that we believe is a poison pill. It is a poison pill for communities, a poison pill for customers, it is a poison pill for general aviation. And no amount of sugar coating is going to change that.    We believe this portion of the bill needs to be rejected, and we need to move forward with a long-term FAA reauthorization bill that is in the best interests of all Americans, not just those in large-hub cities, but including those in small towns and rural communities that depend on access to airports and to airspace, so that we can have a strong national economy and a strong air transportation system.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shuster. Thank you.    And now Bob Poole, the director of transportation policy for the Reason Foundation.    Mr. Poole, proceed.</t>
   </si>
   <si>
-    <t>Poole</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Poole. Thank you very much, Mr. Chairman, Ranking Member DeFazio, and Members. I have been researching the air traffic system since----</t>
   </si>
   <si>
@@ -400,9 +376,6 @@
     <t>400440</t>
   </si>
   <si>
-    <t>Don Young</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Young. Yes, look, but the time is over.</t>
   </si>
   <si>
@@ -463,9 +436,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Let me say the point that the gentleman from Alaska was making is that there is no requirement that there be a member of the public, or a consumer, on the board. There may be, but a President may decide that, ``With all these experts on the board, I better make sure that I have my own expert.'' So there is no requirement. That could have been in the bill.    Mr. Rinaldi went down a list of problems with which I could not be more sympathetic, but they are congressionally inflicted problems: sequester and shutdown and the appropriation process. So what we have in this bill is that the FAA, not the Congress, should change. And the frustration with the Congress--and, for that matter, even with NextGen--is well placed, although we see some movement on NextGen.    So, I want to say I appreciate how the chairman has reached out to the minority so that there are provisions in here with which I agree. And I understand the frustration. And I don't believe that there is any case to be made for the problem--FAA. I really don't. But its dysfunction does not make the case for this proposal.    What is most surprising to me--because I am trying to find out how this would work in practice--what is most surprising to me is how it encourages litigation. The last thing I would have expected from my friends on the other side is a system that said, ``Hey, sue me if you don't like it,'' and that is essentially--and I want to ask you about this--that is essentially what I think it says.    If the Secretary--you can go to the Secretary. If the Secretary disagrees, and you can't reach some agreement, then somebody has got to bring a court suit. So it goes to another part of our separation-of-powers system that is the judiciary, which is the slowest, and the framers made it the slowest on purpose. I am trying to find out how this thing would work. How does this creature work?    For example, there is a problem in this region, the District of Columbia/Maryland/Virginia, of unbearable noise. So we go to the FAA. Actually, they have some powers. They can issue rules. There are things they can do. I don't like the fact that there is not a firewall between them--that gets into legal technicalities.    So how would this work? Is there rulemaking power here? Does it have the same presumption of--that unless it is arbitrary, it goes into effect? Because that is how the courts operate it when it is an agency. So how does it work?    I am a member of the public that can't stand this noise. Actually, that is the case all over America now. Would somebody tell me how I get this Corporation to respond to that consumer problem that is now plaguing all parts of the United States?    [No response.]</t>
   </si>
   <si>
@@ -541,9 +511,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Well, thank you, Mr. Chairman. And I salute you. Also Mr. LoBiondo. You have taken on a tough challenge. We have tried to do this over the past three decades, as you have heard.    Everybody is in agreement that FAA, as it is currently structured to oversee and operate air traffic control, is dysfunctional. I think we are living on borrowed time. We are going to have a major incident.    At the bottom of the barrel are our air traffic controllers. The working conditions for our air traffic controllers are shameful.    You were in Canada, you said, Mr. Bolen. Some of you have been there. We are so far behind. The way we treat our air traffic controllers--I used to have to go out--and I know they still have the same lousy working conditions. I remember going to, like, the Atlanta TRACON [Terminal Radar Approach Control], mold growing there. That is no way to run a system in the 21st century, in 2016.    Now, we have some disagreement on how we restructure this. And we have got to come together, guys.    Mr. Poole, we are falling further and further behind, internationally. I don't want to adopt the Canadian system, I don't want the German system, I don't want the U.K. system. We need a system design that works for the United States. Right? And this is important, economically. If we lose our edge here, we will lose manufacturing. We will lose technology. We will lose opportunities for employment. And we will be left behind.    We are still writing a--aren't we, Mr. Poole, a ground--1950s radar-based system, and the rest of the world is looking at----</t>
   </si>
   <si>
@@ -667,9 +634,6 @@
     <t>400289</t>
   </si>
   <si>
-    <t>Jerrold Nadler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nadler. Thank you, Mr. Chairman. Mr. Chairman, just 2 months ago this committee enacted a major surface transportation bill that made significant improvements to our highway transit and rail system. That bill was developed in a bipartisan manner and passed overwhelmingly.    Unfortunately, this FAA bill represents a departure from the bipartisan tradition of this committee that has been successful under Chairman Shuster's leadership, and will set----</t>
   </si>
   <si>
@@ -898,9 +862,6 @@
     <t>412469</t>
   </si>
   <si>
-    <t>Lou Barletta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barletta. Thank you, Mr. Chairman. You know, when I was a little boy, I can remember my father taking me to Connie Mack Stadium in Philadelphia. And to go from Hazleton there you would have to get on to Schuylkill Expressway. Connie Mack--it was a long time, it was back in the 1960s. You know, Schuylkill Expressway is like the same Schuylkill Expressway today that it was back then. Imagine how many more cars are on the road since then. And, you know, I look at passenger rail. It probably hasn't improved much in time, either. We go to the airport, takes longer to go from point A to point B.    You know, transportation is important, it is critical in our lives, in everybody's lives. Time is money in the business community. They are competing in a global economy. But it is also--time is also valuable in the lives of everyday people, whether they are going on vacation, or they are just going to visit a friend or a relative. Delays and cancellations cost money, but it costs people time. And America's transportation system is falling further and further and further behind other countries' in the world.    I commend the chairman, because it is about time we modernize our system, we focus on safety, on efficiency, and lowering the cost to the users of the transportation system.    My question, Mr. Calio, how does a modern air traffic control system allow your members to better serve the flying public?</t>
   </si>
   <si>
@@ -916,9 +877,6 @@
     <t>400063</t>
   </si>
   <si>
-    <t>Michael E. Capuano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Capuano. Thank you, Mr. Chairman. Mr. Chairman, is Representative Young in the room? Because I was actually considering yielding my time to him. But----    [Laughter]</t>
   </si>
   <si>
@@ -976,9 +934,6 @@
     <t>412489</t>
   </si>
   <si>
-    <t>Reid J. Ribble</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ribble. Thank you, Mr. Chairman. I think, first of all, we need to kind of put--or set aside some myths that have been going on. I have heard it both on the other side, I have heard it from some of our panelists related to--that the problems with the FAA are in part centered around Government shutdowns and inconsistent funding.    In the last four decades there has only been 50 days of Government shutdowns. Over 14,600 days, there has been 50 days of Government shutdowns. And some of those the FAA was exempt from. So that is a tiny, tiny number, about 1 day or 10 days per decade. The Republic will survive.    Secondly, on funding, we talked about inconsistent funding. I am not going to give you budget numbers, I am going to give you appropriated numbers. In fiscal year 2013 they were funded at $15,238,000,000. In fiscal year 2014, $15,734,000,000. In fiscal year 2015, $15,847,000,000. And in fiscal year 2016, $16,011,000,000. So each year the funding has been relatively consistent, and has been growing modestly every single year. And so, our problems with the FAA are not because they have had inconsistent funding, or irregular funding, or Government shutdown. It has been more of what the inspector generals and Government Accountability Office has talked to us about.    Now, related to this fix, whether the fix is the right fix or not the right fix, I think that is all up for debate. And I think that we can try to figure out how in the world we can move forward and actually get a fix that actually works for everybody.    First of all, Mr. Rinaldi, air traffic control workers have done, really, quite an extraordinary job.</t>
   </si>
   <si>
@@ -1030,9 +985,6 @@
     <t>400290</t>
   </si>
   <si>
-    <t>Grace F. Napolitano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Napolitano. Thank you, Mr. Chairman. There are a lot of good provisions in this bill regarding safety, technology, and addressing the concerns of the local communities over the Metroplex flight routing plans. But, unfortunately, the bill also includes several poison pills that I cannot support, and find very objectionable.    One of them--and I strongly oppose the inclusion of section 611, which overturns a Federal court decision that protects meal and rest breaks for truckers, truck drivers, as required by California law. And it is a law in 21 States. On July 4, 2014, the Ninth U.S. Circuit Court of Appeals ruled that trucking operations in California must allow for 30-minute meal breaks after 5 hours of work, and a 10-minute rest break after 4 hours of work, a very reasonable standard when you consider that truck drivers can be subject to 14 hours of on-duty time.    Section 611 would not only preempt California's law with regard to trucking operations, but would also preempt laws in these other 21 States and territories that currently guarantee a meal break. States are Colorado, Connecticut, Delaware, Illinois, Kentucky, Maine, Massachusetts, Minnesota, Nebraska, Nevada, New Hampshire, New York, North Dakota, Oregon, Rhode Island, Tennessee, Vermont, Washington, West Virginia, Guam, and Puerto Rico.    States should be allowed to set their own meal and break standards as they see fit for the health and safety of their workers and of the general public. This section has no place in this aviation bill, as it is a provision that was addressed in the motor carrier labor standards, which we already debated in the FAST Act, the transportation bill currently just passed. And the conference committee wisely agreed that we should not interfere with State laws. This provision was not included in the final FAST Act.    And, Mr. Chairman, I will be offering an amendment with my colleagues, Ranking Member Norton and Mr. Nadler, to strike this section from the bill. I urge my colleagues to support it.    Secondly, I have strong concerns and do oppose the proposals included in this bill that privatizes our air traffic control system. I have visited several of my small areas and talked to the traffic control persons, and they may have challenges, but it is still the safest and most efficient in the world, when you consider how many flights per day operate in our country.    One of the greatest challenges facing our air traffic control and aviation system is a lack of investment by Congress, by this Government, in new technology, safety, and our airports. We should be using this bill to address our investment challenges and give our airports the tools to increase investment and raise the cap of passenger facility charges if local agencies want to raise the revenue for airport improvement.    Mr. Chairman, I want to show this chart that was prepared, the comparison of air navigation service providers.    [Chart]</t>
   </si>
   <si>
@@ -1051,9 +1003,6 @@
     <t>412503</t>
   </si>
   <si>
-    <t>Thomas Massie</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Massie. Thank you, Mr. Chair. And, Mr. Rinaldi, I just want to reiterate something my colleague said earlier, that air traffic controllers, particularly in my district, do a wonderful job, and we feel very safe with your men at the helm, and women.    I want to ask you the first question, though. I was able to go into an air traffic control tower at CVG [Cincinnati/Northern Kentucky International Airport]. And the first thing that struck me, besides the professionalism of your crew, is the antiquated technology. I mean it looked like a computer room from the 1980s, and that is being kind. Could you share with us what sort of tools that you would like to have that the FAA has not incorporated into the air traffic control regime, and what the benefits of those are?</t>
   </si>
   <si>
@@ -1108,9 +1057,6 @@
     <t>400630</t>
   </si>
   <si>
-    <t>Daniel Lipinski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lipinski. Thank you, Mr. Chairman. I want to start by thanking you for the exemplary way that you put together--leaving aside the ATC part--putting together the rest of this bill. It doesn't mean I won't have any amendments tomorrow, but it will be far fewer than the 19 I had on the FAST Act.    First thing, a question of who should the FAA serve, because that seems to be something that is floating around. I am--I was very happy to hear the chairman say that it is the flying public they should serve. It seemed that Mr. Poole might have been suggesting that that is not, because he said the FAA shouldn't have safety as the number-one priority. I think it needs to be the number-one priority, because that is--they are serving the public, and that is their number-one priority.    We need to have airlines that are successful in this country, in order that we have a successful aviation industry, it could move people around. But it is important, I think, that the flying public is the--is who is served by the FAA, served by ATC.    And Mr. Calio seems to suggest that, well, the A4A should have a super-majority, so they are really giving something up by only having four seats on the board. But that is assuming that the A4A is who ATC--who their customer--who the primary entity they should serve. And A4A is simply an organization that represents not all of the airlines--although maybe the three I fly are all in the A4A, maybe that would be good for people flying in and out of Chicago. But let's keep our eye on we should be serving the flying public. That is what the air traffic control should be doing.    Now, noise issues. We have gone over this. I just want to make--be clear on this, because we had a discussion on it, but the bottom line--we have heard people can go to the FAA, because they are still the regulator, if there are noise issues.    Does the FAA have any authority to require this private Corporation to change their routes, or to change anything that would lower any--or eliminate noise problems, or try to--does the FAA--will they have the--OK, people can go to the regulator. Do they have any authority here, with the Corporation? That is a big thing that has been missing. We have been told you can go to the regulator. But can they do anything? Does anyone have any----</t>
   </si>
   <si>
@@ -1198,9 +1144,6 @@
     <t>412186</t>
   </si>
   <si>
-    <t>Albio Sires</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sires. Thank you, Mr. Chairman. First I want to commend the chairman and the ranking member for all the hard work, and the committees that worked on this. You know, there are a lot of good things on this bill, but there are some things I just can't live with.    First, I represent part of Newark Airport. For my constituents, noise is a big issue. And I would like to follow up on what my colleague, Mr. Lipinski--in terms of flight patterns. I mean we not only have problems with airplanes, I got problems with helicopters in my district. And I have been fighting the flight patterns of these helicopters for over 2 years.    So, I was just wondering. Who do I turn to when I have all these issues? And why does it take so long if you have such an issue? Is it going to take longer now, if you privatize this? Because, as it is now with the FAA, it takes a long time to get things changed. So I was just wondering if anybody can answer me.    Mr.----</t>
   </si>
   <si>
@@ -1309,9 +1252,6 @@
     <t>412426</t>
   </si>
   <si>
-    <t>Todd Rokita</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rokita. I thank the chairman. Nick, how tall are you?</t>
   </si>
   <si>
@@ -1417,9 +1357,6 @@
     <t>400048</t>
   </si>
   <si>
-    <t>Corrine Brown</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brown. Thank you, Mr. Chairman. And you know, I am going to be real brief, because I want to give--safety is the number-one thing that I am concerned with. And the last time the Government went to a private agency for their assistance was in--with Amtrak. And then we nickel and dime Amtrak to death. I know no one remembers that.    And in 1988 President Reagan partially privatized the air traffic controllers, and we are still recovering.    I have been supportive of the air traffic controllers the entire time I have been in Congress. But I am concerned with what is being proposed here today, because we have a system--yes, when we passed it in 1995, it was very slow getting started. But they are moving forward. The idea that we would compromise safety in any way--and someone up there made the statement that they are concerned about the traveling public, that is our responsibility, to make sure that we have the safest system, the safest system. That is my responsibility.    I travel twice a week, and I can tell you I have seen several specials on the near misses. And if it is a near miss, then we need to make sure that we give the system the money or the assistance they need to get it done. But to go completely--turn it over to a nonprofit, I just can't fathom that.    And let me just tell you what people ask me about is that when US Airways and American Airlines merged, we don't have curbside service, or that you have to pay $1,000 for a one-way ticket to Jacksonville. I mean that is the kind of issues that the public concerns itself with. They don't have to worry about safety.    And I want to start with Mr. Bolen. Can you tell us about safety? Because that is our number-one responsibility.</t>
   </si>
   <si>
@@ -1465,9 +1402,6 @@
     <t>412645</t>
   </si>
   <si>
-    <t>Cresent Hardy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hardy. Thank you. I would like to thank the chairman for holding this meeting here today.    You know, I am from Nevada, and we have UAS [unmanned aircraft system] test appropriations for our site for--out in Nevada we have the McCarran International Airport within our State. And what we are talking about here, I believe, is one of the most vital, important things, not only for our State but for our Nation. For the world, so to speak, because we are the busiest place in the world.    However, at the end of the day, I don't think anybody can argue that we are--and there is no debate on it--that we are dealing with technology from World War II, back when we were fighting Japan and Germany. Seventy-five years we have been dealing with this type of technology. Paper slips really concern me.    So with that being said, not only is it dated, but it is also costly. It shows here, according to the FAA, airline delays and cancellations are costing passengers and shippers in the airline business nearly $33 billion annually. And the trends are increasing. The FAA projects that passenger growth--will continue to grow for years ahead. So, let's get straight to what we are using, 75-year-old technology. And inefficiencies in the system are still costing us $30 billion a year, or annually.    With the safety and security being paramount, as Ms. Brown has said, I believe that the chairman was absolutely right when he uses the word ``transformative.'' Speaking of safety, I would like to talk to Mr. Calio. In your testimony you state that reform will make our exceptionally safe system even safer. I want to examine that just a little bit further, and kind of get a little down deeper, and have you share your thoughts with us on how that works with this new ATC modernization.</t>
   </si>
   <si>
@@ -1498,9 +1432,6 @@
     <t>412318</t>
   </si>
   <si>
-    <t>Dina Titus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Titus. Thank you very much. Just to kind of recap--because I have been sitting here a long time--we were presented with this major bill a week ago. It is a bill that transforms, not reforms, despite whatever the new jargon is. We have had one hearing today, which came at the request of the Democrats--weren't even going to have that--and tomorrow we are going to mark it up.    We have had 3 hours of hearing, and almost all the questions have been answered with very little specificity. In fact, every answer is basically a, ``Well, trust me, this is just the beginning of the process, we are going to work it out.'' Well, that is not very satisfying. And so I have some concerns that I hope somebody can answer with something specific.    My first concerns, like a lot of them, are about cost. I represent Las Vegas. And, as you all know, that is the--one of the busiest--world's top tourist and convention centers. And I often hear from the hospitality industry if you increase the cost of tickets, that is going to hurt the number of people--or perhaps negatively affect the number of people who come for recreation and for business. Also we have tour operators as a big industry that provides transportation out to see the dams, Colorado River, Grand Canyon. And those costs will be affected.    So I am just wondering if anybody can guarantee me that, since the purpose of this privatizing--I have heard this over and over, too--is to run more efficiently, have cost savings, if those cost savings will be passed on to passengers, or if they are going to go into the bottom-line profit of airlines. So can I say to my industry, ``Yes, this is going to help to bring down costs, it is not going to increase costs''?    Then the second major concern I have, which is also one that is shared by many, is the representation on the board. My colleague, Mr. Hardy, was talking about how big the drone industry is in Nevada. That is true, it is growing everywhere. And yet you have no representative on the board. The air tour operators aren't on the board. Air ambulances aren't on the board. Consumers aren't on the board. Department of Defense, not on the board. Now, you got some little extra advisory committee over here, but we all know that is just window dressing. They don't really have any kind of authority. So how are their views represented by this board?    And then the third question that is--maybe somebody can address is there has been a lot of focus on union issues for air traffic controllers. But what about the other unions, those who do the safety inspections, the tower maintenance, the construction? Is this board going to honor Davis-Bacon provisions? Or, now that it is a private Corporation, can they just throw all that out the window?    So whoever wants to answer those three questions, I would appreciate it. And maybe we can start with you, Mr. Poole.</t>
   </si>
   <si>
@@ -1534,9 +1465,6 @@
     <t>400607</t>
   </si>
   <si>
-    <t>Mark Sanford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sanford. Thanks, Chairman. Two quick thoughts. One, I guess this would be more directed to the chairman. I just want to go on record as a concern, the, in essence, $20 billion from a budgetary impact standpoint going forward.    As I understand it, the chairman is over, I guess now, testifying before the Committee on Ways and Means, and maybe gets that wrinkled out, or leadership will. But I just--you know, the--what happens with the money, I think, is very, very important, going forward. That is outside the jurisdiction of this committee, but I think it is very, very important.    On to this bill, though, at this point in testimony everything that could be said has been said. But if I might turn to you, Mr. Calio, if you were just to wrap it up--because you hear the different points. I saw the Reason article, and it talked about how, at the end of the day, this bill would save money, it makes the system more efficient.    You know, if we are going to live in Thomas Friedman's flat world and we are competing with folks in India and China and a whole lot of other places around the globe, fundamentally, as a society, we need to look for ways that make us more competitive, that bring down costs.    Any wrap-up from your end that you would pass on to me, as I take this message back home and inevitably talk about it in town hall meetings?</t>
   </si>
   <si>
@@ -1574,9 +1502,6 @@
   </si>
   <si>
     <t>412258</t>
-  </si>
-  <si>
-    <t>André Carson</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Carson. Thank you, Mr. Chairman. I think we all can agree that we want to keep our skies the safest in the world, period. And I am not convinced that the comparison really to Canada or European models is necessarily accurate. We have twice the airspace and the volume of air traffic in the U.S.    My question is for Mr. Bolen. What are your thoughts, sir--what are your thoughts concerning what my colleagues cite compared to the airspace we see in Canada?</t>
@@ -2152,11 +2077,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2176,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2202,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2230,11 +2149,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2254,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2280,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2308,11 +2221,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2332,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2360,11 +2269,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2384,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2412,11 +2317,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2436,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2464,11 +2365,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2488,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2514,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2540,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2568,11 +2461,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2592,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2620,11 +2509,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2644,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2672,11 +2557,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2696,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
         <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2724,11 +2605,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2748,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2776,11 +2653,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2800,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2828,11 +2701,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2852,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2880,11 +2749,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2904,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2932,11 +2797,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2956,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2984,11 +2845,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3008,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3036,11 +2893,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3060,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3088,11 +2941,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3112,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3140,11 +2989,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3164,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3192,11 +3037,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3216,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3244,11 +3085,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3268,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3296,11 +3133,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3320,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3346,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3372,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3398,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3424,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3450,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3476,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3502,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3528,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3554,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3580,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3606,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3632,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3658,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3684,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3710,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3736,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3762,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3788,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3814,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3840,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3866,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3892,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3918,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3944,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3970,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3996,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4022,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4048,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4074,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4100,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4126,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4152,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4178,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4204,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4230,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4256,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4282,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4308,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4334,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4360,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
-      </c>
-      <c r="G87" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4386,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4412,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4438,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
-      </c>
-      <c r="G90" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4464,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4490,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4516,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4542,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
-      </c>
-      <c r="G94" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4568,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4594,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G96" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4620,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4646,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
-      </c>
-      <c r="G98" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4672,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
-      </c>
-      <c r="G99" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4698,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4726,11 +4453,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4750,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4778,11 +4501,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4802,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4830,11 +4549,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4854,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4882,11 +4597,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4906,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4934,11 +4645,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4958,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>127</v>
-      </c>
-      <c r="G110" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4986,11 +4693,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5010,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
-      </c>
-      <c r="G112" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5038,11 +4741,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5062,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
-      </c>
-      <c r="G114" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5090,11 +4789,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5114,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>127</v>
-      </c>
-      <c r="G116" t="s">
+        <v>119</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
         <v>128</v>
-      </c>
-      <c r="H116" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5140,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>127</v>
-      </c>
-      <c r="G117" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5168,11 +4861,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5192,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>127</v>
-      </c>
-      <c r="G119" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5220,11 +4909,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5244,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>127</v>
-      </c>
-      <c r="G121" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5272,11 +4957,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5296,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>127</v>
-      </c>
-      <c r="G123" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5324,11 +5005,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5348,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>127</v>
-      </c>
-      <c r="G125" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5376,11 +5053,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5400,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>148</v>
-      </c>
-      <c r="G127" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5426,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>148</v>
-      </c>
-      <c r="G128" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5454,11 +5125,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5478,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>148</v>
-      </c>
-      <c r="G130" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5506,11 +5173,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5530,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>148</v>
-      </c>
-      <c r="G132" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5558,11 +5221,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5582,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>148</v>
-      </c>
-      <c r="G134" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5610,11 +5269,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5634,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>148</v>
-      </c>
-      <c r="G136" t="s">
+        <v>139</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
         <v>149</v>
-      </c>
-      <c r="H136" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5662,11 +5317,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5686,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>148</v>
-      </c>
-      <c r="G138" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5712,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
-      </c>
-      <c r="G139" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5740,11 +5389,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5764,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>148</v>
-      </c>
-      <c r="G141" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5792,11 +5437,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5816,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>148</v>
-      </c>
-      <c r="G143" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5844,11 +5485,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5868,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>148</v>
-      </c>
-      <c r="G145" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5896,11 +5533,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5920,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>148</v>
-      </c>
-      <c r="G147" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5948,11 +5581,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5972,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>148</v>
-      </c>
-      <c r="G149" t="s">
-        <v>149</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6000,11 +5629,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6024,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>174</v>
-      </c>
-      <c r="G151" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6050,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
-      </c>
-      <c r="G152" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6076,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>174</v>
-      </c>
-      <c r="G153" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6102,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
-      </c>
-      <c r="G154" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6128,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>174</v>
-      </c>
-      <c r="G155" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6154,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
-      </c>
-      <c r="G156" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6180,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>174</v>
-      </c>
-      <c r="G157" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6206,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
-      </c>
-      <c r="G158" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6232,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>174</v>
-      </c>
-      <c r="G159" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6258,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
-      </c>
-      <c r="G160" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6284,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>174</v>
-      </c>
-      <c r="G161" t="s">
+        <v>164</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
         <v>175</v>
-      </c>
-      <c r="H161" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6310,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
-      </c>
-      <c r="G162" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6336,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>174</v>
-      </c>
-      <c r="G163" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6362,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
-      </c>
-      <c r="G164" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6388,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>174</v>
-      </c>
-      <c r="G165" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6414,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
-      </c>
-      <c r="G166" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6440,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>174</v>
-      </c>
-      <c r="G167" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6466,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
-      </c>
-      <c r="G168" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6492,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>174</v>
-      </c>
-      <c r="G169" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6518,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
-      </c>
-      <c r="G170" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6544,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>174</v>
-      </c>
-      <c r="G171" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6570,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
-      </c>
-      <c r="G172" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6596,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>174</v>
-      </c>
-      <c r="G173" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6622,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
-      </c>
-      <c r="G174" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6648,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>174</v>
-      </c>
-      <c r="G175" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6674,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
-      </c>
-      <c r="G176" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6700,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>174</v>
-      </c>
-      <c r="G177" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6726,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
-      </c>
-      <c r="G178" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6752,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>174</v>
-      </c>
-      <c r="G179" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6778,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
-      </c>
-      <c r="G180" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6804,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>174</v>
-      </c>
-      <c r="G181" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6830,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
-      </c>
-      <c r="G182" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6856,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>174</v>
-      </c>
-      <c r="G183" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6882,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
-      </c>
-      <c r="G184" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6908,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>174</v>
-      </c>
-      <c r="G185" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6934,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
-      </c>
-      <c r="G186" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6960,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>174</v>
-      </c>
-      <c r="G187" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6986,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
-      </c>
-      <c r="G188" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7012,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>174</v>
-      </c>
-      <c r="G189" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7040,11 +6589,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7064,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>216</v>
-      </c>
-      <c r="G191" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7092,11 +6637,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7116,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>216</v>
-      </c>
-      <c r="G193" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7144,11 +6685,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7168,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>216</v>
-      </c>
-      <c r="G195" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7196,11 +6733,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>12</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7220,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>216</v>
-      </c>
-      <c r="G197" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7248,11 +6781,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7272,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>216</v>
-      </c>
-      <c r="G199" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7298,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
-      </c>
-      <c r="G200" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7324,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
+        <v>205</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
         <v>216</v>
-      </c>
-      <c r="G201" t="s">
-        <v>217</v>
-      </c>
-      <c r="H201" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7350,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
-      </c>
-      <c r="G202" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7376,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>216</v>
-      </c>
-      <c r="G203" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7402,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
-      </c>
-      <c r="G204" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7428,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>216</v>
-      </c>
-      <c r="G205" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7454,13 +6971,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
-      </c>
-      <c r="G206" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7480,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>216</v>
-      </c>
-      <c r="G207" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7506,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
-      </c>
-      <c r="G208" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7532,13 +7043,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>216</v>
-      </c>
-      <c r="G209" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7558,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
-      </c>
-      <c r="G210" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7584,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>216</v>
-      </c>
-      <c r="G211" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7610,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>36</v>
-      </c>
-      <c r="G212" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7636,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>216</v>
-      </c>
-      <c r="G213" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7664,11 +7165,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>12</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7688,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>216</v>
-      </c>
-      <c r="G215" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7716,11 +7213,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7740,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>216</v>
-      </c>
-      <c r="G217" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7768,11 +7261,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>12</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7792,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>216</v>
-      </c>
-      <c r="G219" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7820,11 +7309,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>12</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7844,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>216</v>
-      </c>
-      <c r="G221" t="s">
-        <v>217</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7872,11 +7357,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7896,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>26</v>
-      </c>
-      <c r="G223" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7922,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
-      </c>
-      <c r="G224" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7948,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>26</v>
-      </c>
-      <c r="G225" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7974,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
-      </c>
-      <c r="G226" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8000,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>26</v>
-      </c>
-      <c r="G227" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8026,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
-      </c>
-      <c r="G228" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8052,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>26</v>
-      </c>
-      <c r="G229" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8078,13 +7547,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
-      </c>
-      <c r="G230" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8104,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>26</v>
-      </c>
-      <c r="G231" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8130,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
-      </c>
-      <c r="G232" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8156,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>26</v>
-      </c>
-      <c r="G233" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8184,11 +7645,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>12</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8208,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
-      </c>
-      <c r="G235" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8234,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
-      </c>
-      <c r="G236" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8260,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
-      </c>
-      <c r="G237" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8286,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
-      </c>
-      <c r="G238" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8312,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>30</v>
-      </c>
-      <c r="G239" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8338,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
-      </c>
-      <c r="G240" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8364,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>30</v>
-      </c>
-      <c r="G241" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8390,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
-      </c>
-      <c r="G242" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8416,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>30</v>
-      </c>
-      <c r="G243" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8442,13 +7883,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
-      </c>
-      <c r="G244" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8468,13 +7907,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
-      </c>
-      <c r="G245" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8494,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
-      </c>
-      <c r="G246" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8520,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>30</v>
-      </c>
-      <c r="G247" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8546,13 +7979,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
-      </c>
-      <c r="G248" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8572,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>30</v>
-      </c>
-      <c r="G249" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8598,13 +8027,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
-      </c>
-      <c r="G250" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8624,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>30</v>
-      </c>
-      <c r="G251" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8650,13 +8075,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
-      </c>
-      <c r="G252" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8676,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>30</v>
-      </c>
-      <c r="G253" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8702,13 +8123,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
-      </c>
-      <c r="G254" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8728,13 +8147,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>30</v>
-      </c>
-      <c r="G255" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8754,13 +8171,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>36</v>
-      </c>
-      <c r="G256" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8780,13 +8195,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>30</v>
-      </c>
-      <c r="G257" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8806,13 +8219,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
-      </c>
-      <c r="G258" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8832,13 +8243,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>30</v>
-      </c>
-      <c r="G259" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8858,13 +8267,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>36</v>
-      </c>
-      <c r="G260" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8884,13 +8291,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>30</v>
-      </c>
-      <c r="G261" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8910,13 +8315,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>36</v>
-      </c>
-      <c r="G262" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8936,13 +8339,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>30</v>
-      </c>
-      <c r="G263" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8962,13 +8363,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>30</v>
-      </c>
-      <c r="G264" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8990,11 +8389,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>12</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9014,13 +8411,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>293</v>
-      </c>
-      <c r="G266" t="s">
-        <v>294</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9040,13 +8435,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
-      </c>
-      <c r="G267" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9066,13 +8459,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>293</v>
-      </c>
-      <c r="G268" t="s">
-        <v>294</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9094,11 +8485,9 @@
       <c r="F269" t="s">
         <v>11</v>
       </c>
-      <c r="G269" t="s">
-        <v>12</v>
-      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9118,13 +8507,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>299</v>
-      </c>
-      <c r="G270" t="s">
-        <v>300</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9144,13 +8531,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>299</v>
-      </c>
-      <c r="G271" t="s">
-        <v>300</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9170,13 +8555,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>36</v>
-      </c>
-      <c r="G272" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9196,13 +8579,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>299</v>
-      </c>
-      <c r="G273" t="s">
-        <v>300</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9222,13 +8603,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>36</v>
-      </c>
-      <c r="G274" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9248,13 +8627,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>299</v>
-      </c>
-      <c r="G275" t="s">
-        <v>300</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9274,13 +8651,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>36</v>
-      </c>
-      <c r="G276" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9300,13 +8675,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>299</v>
-      </c>
-      <c r="G277" t="s">
-        <v>300</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9326,13 +8699,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>36</v>
-      </c>
-      <c r="G278" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9352,13 +8723,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>299</v>
-      </c>
-      <c r="G279" t="s">
-        <v>300</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9378,13 +8747,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>36</v>
-      </c>
-      <c r="G280" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9404,13 +8771,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>299</v>
-      </c>
-      <c r="G281" t="s">
-        <v>300</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9430,13 +8795,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>36</v>
-      </c>
-      <c r="G282" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9456,13 +8819,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
+        <v>286</v>
+      </c>
+      <c r="G283" t="s"/>
+      <c r="H283" t="s">
         <v>299</v>
-      </c>
-      <c r="G283" t="s">
-        <v>300</v>
-      </c>
-      <c r="H283" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9482,13 +8843,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>299</v>
-      </c>
-      <c r="G284" t="s">
+        <v>286</v>
+      </c>
+      <c r="G284" t="s"/>
+      <c r="H284" t="s">
         <v>300</v>
-      </c>
-      <c r="H284" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9508,13 +8867,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>36</v>
-      </c>
-      <c r="G285" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9534,13 +8891,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>299</v>
-      </c>
-      <c r="G286" t="s">
-        <v>300</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9562,11 +8917,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9588,11 +8941,9 @@
       <c r="F288" t="s">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>12</v>
-      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9612,13 +8963,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>319</v>
-      </c>
-      <c r="G289" t="s">
-        <v>320</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9638,13 +8987,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>36</v>
-      </c>
-      <c r="G290" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9664,13 +9011,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>319</v>
-      </c>
-      <c r="G291" t="s">
-        <v>320</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9690,13 +9035,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>36</v>
-      </c>
-      <c r="G292" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9716,13 +9059,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>319</v>
-      </c>
-      <c r="G293" t="s">
-        <v>320</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9742,13 +9083,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>36</v>
-      </c>
-      <c r="G294" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9768,13 +9107,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>319</v>
-      </c>
-      <c r="G295" t="s">
-        <v>320</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9794,13 +9131,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>36</v>
-      </c>
-      <c r="G296" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9820,13 +9155,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>319</v>
-      </c>
-      <c r="G297" t="s">
-        <v>320</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9846,13 +9179,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>36</v>
-      </c>
-      <c r="G298" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9872,13 +9203,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>319</v>
-      </c>
-      <c r="G299" t="s">
-        <v>320</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9898,13 +9227,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>36</v>
-      </c>
-      <c r="G300" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9924,13 +9251,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>319</v>
-      </c>
-      <c r="G301" t="s">
-        <v>320</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9950,13 +9275,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
-      </c>
-      <c r="G302" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9976,13 +9299,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>319</v>
-      </c>
-      <c r="G303" t="s">
+        <v>305</v>
+      </c>
+      <c r="G303" t="s"/>
+      <c r="H303" t="s">
         <v>320</v>
-      </c>
-      <c r="H303" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10004,11 +9325,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>12</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10028,13 +9347,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>337</v>
-      </c>
-      <c r="G305" t="s">
-        <v>338</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10054,13 +9371,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>337</v>
-      </c>
-      <c r="G306" t="s">
-        <v>338</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10080,13 +9395,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>36</v>
-      </c>
-      <c r="G307" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10106,13 +9419,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>337</v>
-      </c>
-      <c r="G308" t="s">
-        <v>338</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10134,11 +9445,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>12</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10158,13 +9467,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>344</v>
-      </c>
-      <c r="G310" t="s">
-        <v>345</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10184,13 +9491,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>36</v>
-      </c>
-      <c r="G311" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10210,13 +9515,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>344</v>
-      </c>
-      <c r="G312" t="s">
-        <v>345</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10236,13 +9539,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>36</v>
-      </c>
-      <c r="G313" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10262,13 +9563,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>36</v>
-      </c>
-      <c r="G314" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10288,13 +9587,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>36</v>
-      </c>
-      <c r="G315" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10314,13 +9611,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>344</v>
-      </c>
-      <c r="G316" t="s">
-        <v>345</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10340,13 +9635,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>36</v>
-      </c>
-      <c r="G317" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10366,13 +9659,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>344</v>
-      </c>
-      <c r="G318" t="s">
-        <v>345</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10392,13 +9683,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>36</v>
-      </c>
-      <c r="G319" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10418,13 +9707,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>344</v>
-      </c>
-      <c r="G320" t="s">
-        <v>345</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10444,13 +9731,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>36</v>
-      </c>
-      <c r="G321" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10470,13 +9755,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>344</v>
-      </c>
-      <c r="G322" t="s">
-        <v>345</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10496,13 +9779,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>36</v>
-      </c>
-      <c r="G323" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10522,13 +9803,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>344</v>
-      </c>
-      <c r="G324" t="s">
-        <v>345</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10550,11 +9829,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10574,13 +9851,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
+        <v>328</v>
+      </c>
+      <c r="G326" t="s"/>
+      <c r="H326" t="s">
         <v>344</v>
-      </c>
-      <c r="G326" t="s">
-        <v>345</v>
-      </c>
-      <c r="H326" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10602,11 +9877,9 @@
       <c r="F327" t="s">
         <v>11</v>
       </c>
-      <c r="G327" t="s">
-        <v>12</v>
-      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10626,13 +9899,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>363</v>
-      </c>
-      <c r="G328" t="s">
-        <v>364</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10652,13 +9923,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>36</v>
-      </c>
-      <c r="G329" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10678,13 +9947,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>36</v>
-      </c>
-      <c r="G330" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10704,13 +9971,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>363</v>
-      </c>
-      <c r="G331" t="s">
-        <v>364</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10730,13 +9995,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>36</v>
-      </c>
-      <c r="G332" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10756,13 +10019,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>363</v>
-      </c>
-      <c r="G333" t="s">
-        <v>364</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10782,13 +10043,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>36</v>
-      </c>
-      <c r="G334" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10808,13 +10067,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>363</v>
-      </c>
-      <c r="G335" t="s">
-        <v>364</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10834,13 +10091,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>36</v>
-      </c>
-      <c r="G336" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10860,13 +10115,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>363</v>
-      </c>
-      <c r="G337" t="s">
-        <v>364</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10886,13 +10139,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>363</v>
-      </c>
-      <c r="G338" t="s">
-        <v>364</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10912,13 +10163,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>36</v>
-      </c>
-      <c r="G339" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10938,13 +10187,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>363</v>
-      </c>
-      <c r="G340" t="s">
-        <v>364</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10966,11 +10213,9 @@
       <c r="F341" t="s">
         <v>11</v>
       </c>
-      <c r="G341" t="s">
-        <v>12</v>
-      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10990,13 +10235,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>36</v>
-      </c>
-      <c r="G342" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11016,13 +10259,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>36</v>
-      </c>
-      <c r="G343" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11042,13 +10283,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>36</v>
-      </c>
-      <c r="G344" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11068,13 +10307,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>36</v>
-      </c>
-      <c r="G345" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11094,13 +10331,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>36</v>
-      </c>
-      <c r="G346" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11120,13 +10355,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>36</v>
-      </c>
-      <c r="G347" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11146,13 +10379,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>36</v>
-      </c>
-      <c r="G348" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11172,13 +10403,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>36</v>
-      </c>
-      <c r="G349" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11198,13 +10427,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>36</v>
-      </c>
-      <c r="G350" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11224,13 +10451,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>36</v>
-      </c>
-      <c r="G351" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11250,13 +10475,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>36</v>
-      </c>
-      <c r="G352" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11276,13 +10499,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>36</v>
-      </c>
-      <c r="G353" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11302,13 +10523,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>36</v>
-      </c>
-      <c r="G354" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11328,13 +10547,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>26</v>
-      </c>
-      <c r="G355" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11354,13 +10571,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>393</v>
-      </c>
-      <c r="G356" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11380,13 +10595,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>36</v>
-      </c>
-      <c r="G357" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11406,13 +10619,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>393</v>
-      </c>
-      <c r="G358" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11432,13 +10643,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>36</v>
-      </c>
-      <c r="G359" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11458,13 +10667,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>393</v>
-      </c>
-      <c r="G360" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11484,13 +10691,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>36</v>
-      </c>
-      <c r="G361" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11510,13 +10715,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>393</v>
-      </c>
-      <c r="G362" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11536,13 +10739,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>36</v>
-      </c>
-      <c r="G363" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11562,13 +10763,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>393</v>
-      </c>
-      <c r="G364" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11588,13 +10787,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>36</v>
-      </c>
-      <c r="G365" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11614,13 +10811,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>393</v>
-      </c>
-      <c r="G366" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11640,13 +10835,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>36</v>
-      </c>
-      <c r="G367" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11666,13 +10859,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>393</v>
-      </c>
-      <c r="G368" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11692,13 +10883,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>36</v>
-      </c>
-      <c r="G369" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11718,13 +10907,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>393</v>
-      </c>
-      <c r="G370" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11744,13 +10931,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>36</v>
-      </c>
-      <c r="G371" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11770,13 +10955,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>393</v>
-      </c>
-      <c r="G372" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11796,13 +10979,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>36</v>
-      </c>
-      <c r="G373" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11822,13 +11003,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>393</v>
-      </c>
-      <c r="G374" t="s">
+        <v>375</v>
+      </c>
+      <c r="G374" t="s"/>
+      <c r="H374" t="s">
         <v>394</v>
-      </c>
-      <c r="H374" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11848,13 +11027,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>36</v>
-      </c>
-      <c r="G375" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11874,13 +11051,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>393</v>
-      </c>
-      <c r="G376" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11900,13 +11075,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>36</v>
-      </c>
-      <c r="G377" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11926,13 +11099,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>393</v>
-      </c>
-      <c r="G378" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11952,13 +11123,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>36</v>
-      </c>
-      <c r="G379" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11978,13 +11147,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>393</v>
-      </c>
-      <c r="G380" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12004,13 +11171,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>36</v>
-      </c>
-      <c r="G381" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12030,13 +11195,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>393</v>
-      </c>
-      <c r="G382" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12056,13 +11219,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>36</v>
-      </c>
-      <c r="G383" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12082,13 +11243,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>393</v>
-      </c>
-      <c r="G384" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12108,13 +11267,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>36</v>
-      </c>
-      <c r="G385" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12134,13 +11291,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>393</v>
-      </c>
-      <c r="G386" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12160,13 +11315,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>393</v>
-      </c>
-      <c r="G387" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12186,13 +11339,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>36</v>
-      </c>
-      <c r="G388" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12212,13 +11363,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>393</v>
-      </c>
-      <c r="G389" t="s">
-        <v>394</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12238,13 +11387,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>26</v>
-      </c>
-      <c r="G390" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12264,13 +11411,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>430</v>
-      </c>
-      <c r="G391" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12290,13 +11435,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>36</v>
-      </c>
-      <c r="G392" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12316,13 +11459,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>36</v>
-      </c>
-      <c r="G393" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12342,13 +11483,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>430</v>
-      </c>
-      <c r="G394" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12368,13 +11507,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>36</v>
-      </c>
-      <c r="G395" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12394,13 +11531,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>430</v>
-      </c>
-      <c r="G396" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12420,13 +11555,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>36</v>
-      </c>
-      <c r="G397" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12446,13 +11579,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>430</v>
-      </c>
-      <c r="G398" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12472,13 +11603,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
-        <v>36</v>
-      </c>
-      <c r="G399" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12498,13 +11627,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>430</v>
-      </c>
-      <c r="G400" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12524,13 +11651,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>36</v>
-      </c>
-      <c r="G401" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12550,13 +11675,11 @@
         <v>10</v>
       </c>
       <c r="F402" t="s">
-        <v>430</v>
-      </c>
-      <c r="G402" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12576,13 +11699,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>36</v>
-      </c>
-      <c r="G403" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12602,13 +11723,11 @@
         <v>10</v>
       </c>
       <c r="F404" t="s">
-        <v>430</v>
-      </c>
-      <c r="G404" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12628,13 +11747,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>36</v>
-      </c>
-      <c r="G405" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12654,13 +11771,11 @@
         <v>10</v>
       </c>
       <c r="F406" t="s">
-        <v>430</v>
-      </c>
-      <c r="G406" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12680,13 +11795,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>36</v>
-      </c>
-      <c r="G407" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12706,13 +11819,11 @@
         <v>10</v>
       </c>
       <c r="F408" t="s">
-        <v>430</v>
-      </c>
-      <c r="G408" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12732,13 +11843,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>36</v>
-      </c>
-      <c r="G409" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12758,13 +11867,11 @@
         <v>10</v>
       </c>
       <c r="F410" t="s">
+        <v>411</v>
+      </c>
+      <c r="G410" t="s"/>
+      <c r="H410" t="s">
         <v>430</v>
-      </c>
-      <c r="G410" t="s">
-        <v>431</v>
-      </c>
-      <c r="H410" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12784,13 +11891,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>36</v>
-      </c>
-      <c r="G411" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12810,13 +11915,11 @@
         <v>10</v>
       </c>
       <c r="F412" t="s">
-        <v>430</v>
-      </c>
-      <c r="G412" t="s">
+        <v>411</v>
+      </c>
+      <c r="G412" t="s"/>
+      <c r="H412" t="s">
         <v>431</v>
-      </c>
-      <c r="H412" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12836,13 +11939,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>36</v>
-      </c>
-      <c r="G413" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12862,13 +11963,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>430</v>
-      </c>
-      <c r="G414" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12888,13 +11987,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>36</v>
-      </c>
-      <c r="G415" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12914,13 +12011,11 @@
         <v>10</v>
       </c>
       <c r="F416" t="s">
-        <v>430</v>
-      </c>
-      <c r="G416" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12940,13 +12035,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>36</v>
-      </c>
-      <c r="G417" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12966,13 +12059,11 @@
         <v>10</v>
       </c>
       <c r="F418" t="s">
-        <v>430</v>
-      </c>
-      <c r="G418" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12992,13 +12083,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>36</v>
-      </c>
-      <c r="G419" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13018,13 +12107,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>36</v>
-      </c>
-      <c r="G420" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13044,13 +12131,11 @@
         <v>10</v>
       </c>
       <c r="F421" t="s">
-        <v>430</v>
-      </c>
-      <c r="G421" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13070,13 +12155,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>26</v>
-      </c>
-      <c r="G422" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13096,13 +12179,11 @@
         <v>10</v>
       </c>
       <c r="F423" t="s">
-        <v>430</v>
-      </c>
-      <c r="G423" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13122,13 +12203,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>26</v>
-      </c>
-      <c r="G424" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13148,13 +12227,11 @@
         <v>10</v>
       </c>
       <c r="F425" t="s">
-        <v>430</v>
-      </c>
-      <c r="G425" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13174,13 +12251,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>26</v>
-      </c>
-      <c r="G426" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13200,13 +12275,11 @@
         <v>10</v>
       </c>
       <c r="F427" t="s">
-        <v>466</v>
-      </c>
-      <c r="G427" t="s">
-        <v>467</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13226,13 +12299,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>36</v>
-      </c>
-      <c r="G428" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13252,13 +12323,11 @@
         <v>10</v>
       </c>
       <c r="F429" t="s">
-        <v>466</v>
-      </c>
-      <c r="G429" t="s">
-        <v>467</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13278,13 +12347,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>36</v>
-      </c>
-      <c r="G430" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13304,13 +12371,11 @@
         <v>10</v>
       </c>
       <c r="F431" t="s">
-        <v>466</v>
-      </c>
-      <c r="G431" t="s">
-        <v>467</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13330,13 +12395,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>36</v>
-      </c>
-      <c r="G432" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13356,13 +12419,11 @@
         <v>10</v>
       </c>
       <c r="F433" t="s">
-        <v>466</v>
-      </c>
-      <c r="G433" t="s">
-        <v>467</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13382,13 +12443,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>36</v>
-      </c>
-      <c r="G434" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13408,13 +12467,11 @@
         <v>10</v>
       </c>
       <c r="F435" t="s">
-        <v>466</v>
-      </c>
-      <c r="G435" t="s">
-        <v>467</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13434,13 +12491,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>36</v>
-      </c>
-      <c r="G436" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13460,13 +12515,11 @@
         <v>10</v>
       </c>
       <c r="F437" t="s">
-        <v>466</v>
-      </c>
-      <c r="G437" t="s">
-        <v>467</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13486,13 +12539,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>36</v>
-      </c>
-      <c r="G438" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13512,13 +12563,11 @@
         <v>10</v>
       </c>
       <c r="F439" t="s">
-        <v>466</v>
-      </c>
-      <c r="G439" t="s">
-        <v>467</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13538,13 +12587,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>26</v>
-      </c>
-      <c r="G440" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13564,13 +12611,11 @@
         <v>10</v>
       </c>
       <c r="F441" t="s">
-        <v>482</v>
-      </c>
-      <c r="G441" t="s">
-        <v>483</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13590,13 +12635,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>36</v>
-      </c>
-      <c r="G442" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13616,13 +12659,11 @@
         <v>10</v>
       </c>
       <c r="F443" t="s">
-        <v>482</v>
-      </c>
-      <c r="G443" t="s">
-        <v>483</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13642,13 +12683,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>36</v>
-      </c>
-      <c r="G444" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13668,13 +12707,11 @@
         <v>10</v>
       </c>
       <c r="F445" t="s">
-        <v>482</v>
-      </c>
-      <c r="G445" t="s">
-        <v>483</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13694,13 +12731,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>36</v>
-      </c>
-      <c r="G446" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13720,13 +12755,11 @@
         <v>10</v>
       </c>
       <c r="F447" t="s">
-        <v>482</v>
-      </c>
-      <c r="G447" t="s">
-        <v>483</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13746,13 +12779,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>26</v>
-      </c>
-      <c r="G448" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13772,13 +12803,11 @@
         <v>10</v>
       </c>
       <c r="F449" t="s">
-        <v>26</v>
-      </c>
-      <c r="G449" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13798,13 +12827,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>493</v>
-      </c>
-      <c r="G450" t="s">
-        <v>494</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13824,13 +12851,11 @@
         <v>10</v>
       </c>
       <c r="F451" t="s">
-        <v>36</v>
-      </c>
-      <c r="G451" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13850,13 +12875,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>493</v>
-      </c>
-      <c r="G452" t="s">
-        <v>494</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13876,13 +12899,11 @@
         <v>10</v>
       </c>
       <c r="F453" t="s">
-        <v>36</v>
-      </c>
-      <c r="G453" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13902,13 +12923,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>493</v>
-      </c>
-      <c r="G454" t="s">
-        <v>494</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13928,13 +12947,11 @@
         <v>10</v>
       </c>
       <c r="F455" t="s">
-        <v>36</v>
-      </c>
-      <c r="G455" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13954,13 +12971,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>493</v>
-      </c>
-      <c r="G456" t="s">
-        <v>494</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13980,13 +12995,11 @@
         <v>10</v>
       </c>
       <c r="F457" t="s">
-        <v>36</v>
-      </c>
-      <c r="G457" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14006,13 +13019,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>493</v>
-      </c>
-      <c r="G458" t="s">
-        <v>494</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14032,13 +13043,11 @@
         <v>10</v>
       </c>
       <c r="F459" t="s">
-        <v>26</v>
-      </c>
-      <c r="G459" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14058,13 +13067,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>505</v>
-      </c>
-      <c r="G460" t="s">
-        <v>506</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14084,13 +13091,11 @@
         <v>10</v>
       </c>
       <c r="F461" t="s">
-        <v>36</v>
-      </c>
-      <c r="G461" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14110,13 +13115,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>505</v>
-      </c>
-      <c r="G462" t="s">
-        <v>506</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14136,13 +13139,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>36</v>
-      </c>
-      <c r="G463" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14162,13 +13163,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>505</v>
-      </c>
-      <c r="G464" t="s">
-        <v>506</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14188,13 +13187,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>36</v>
-      </c>
-      <c r="G465" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14214,13 +13211,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>505</v>
-      </c>
-      <c r="G466" t="s">
-        <v>506</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14240,13 +13235,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>36</v>
-      </c>
-      <c r="G467" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14266,13 +13259,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>505</v>
-      </c>
-      <c r="G468" t="s">
-        <v>506</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14292,13 +13283,11 @@
         <v>10</v>
       </c>
       <c r="F469" t="s">
-        <v>36</v>
-      </c>
-      <c r="G469" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14318,13 +13307,11 @@
         <v>10</v>
       </c>
       <c r="F470" t="s">
-        <v>505</v>
-      </c>
-      <c r="G470" t="s">
-        <v>506</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="G470" t="s"/>
       <c r="H470" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14344,13 +13331,11 @@
         <v>10</v>
       </c>
       <c r="F471" t="s">
-        <v>26</v>
-      </c>
-      <c r="G471" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G471" t="s"/>
       <c r="H471" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14370,13 +13355,11 @@
         <v>10</v>
       </c>
       <c r="F472" t="s">
-        <v>519</v>
-      </c>
-      <c r="G472" t="s">
-        <v>520</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="G472" t="s"/>
       <c r="H472" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14396,13 +13379,11 @@
         <v>10</v>
       </c>
       <c r="F473" t="s">
-        <v>36</v>
-      </c>
-      <c r="G473" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G473" t="s"/>
       <c r="H473" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14422,13 +13403,11 @@
         <v>10</v>
       </c>
       <c r="F474" t="s">
-        <v>519</v>
-      </c>
-      <c r="G474" t="s">
-        <v>520</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="G474" t="s"/>
       <c r="H474" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14448,13 +13427,11 @@
         <v>10</v>
       </c>
       <c r="F475" t="s">
-        <v>36</v>
-      </c>
-      <c r="G475" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G475" t="s"/>
       <c r="H475" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14474,13 +13451,11 @@
         <v>10</v>
       </c>
       <c r="F476" t="s">
-        <v>519</v>
-      </c>
-      <c r="G476" t="s">
-        <v>520</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="G476" t="s"/>
       <c r="H476" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14500,13 +13475,11 @@
         <v>10</v>
       </c>
       <c r="F477" t="s">
-        <v>36</v>
-      </c>
-      <c r="G477" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G477" t="s"/>
       <c r="H477" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14526,13 +13499,11 @@
         <v>10</v>
       </c>
       <c r="F478" t="s">
-        <v>519</v>
-      </c>
-      <c r="G478" t="s">
-        <v>520</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="G478" t="s"/>
       <c r="H478" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14554,11 +13525,9 @@
       <c r="F479" t="s">
         <v>11</v>
       </c>
-      <c r="G479" t="s">
-        <v>12</v>
-      </c>
+      <c r="G479" t="s"/>
       <c r="H479" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14578,13 +13547,11 @@
         <v>10</v>
       </c>
       <c r="F480" t="s">
-        <v>26</v>
-      </c>
-      <c r="G480" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G480" t="s"/>
       <c r="H480" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14604,13 +13571,11 @@
         <v>10</v>
       </c>
       <c r="F481" t="s">
-        <v>36</v>
-      </c>
-      <c r="G481" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G481" t="s"/>
       <c r="H481" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14630,13 +13595,11 @@
         <v>10</v>
       </c>
       <c r="F482" t="s">
-        <v>26</v>
-      </c>
-      <c r="G482" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G482" t="s"/>
       <c r="H482" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14656,13 +13619,11 @@
         <v>10</v>
       </c>
       <c r="F483" t="s">
-        <v>36</v>
-      </c>
-      <c r="G483" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G483" t="s"/>
       <c r="H483" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14682,13 +13643,11 @@
         <v>10</v>
       </c>
       <c r="F484" t="s">
-        <v>26</v>
-      </c>
-      <c r="G484" t="s">
-        <v>27</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G484" t="s"/>
       <c r="H484" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14710,11 +13669,9 @@
       <c r="F485" t="s">
         <v>11</v>
       </c>
-      <c r="G485" t="s">
-        <v>12</v>
-      </c>
+      <c r="G485" t="s"/>
       <c r="H485" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14734,13 +13691,11 @@
         <v>10</v>
       </c>
       <c r="F486" t="s">
-        <v>14</v>
-      </c>
-      <c r="G486" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G486" t="s"/>
       <c r="H486" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14760,13 +13715,11 @@
         <v>10</v>
       </c>
       <c r="F487" t="s">
-        <v>14</v>
-      </c>
-      <c r="G487" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G487" t="s"/>
       <c r="H487" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14786,13 +13739,11 @@
         <v>10</v>
       </c>
       <c r="F488" t="s">
-        <v>36</v>
-      </c>
-      <c r="G488" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G488" t="s"/>
       <c r="H488" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14812,13 +13763,11 @@
         <v>10</v>
       </c>
       <c r="F489" t="s">
-        <v>14</v>
-      </c>
-      <c r="G489" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G489" t="s"/>
       <c r="H489" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14838,13 +13787,11 @@
         <v>10</v>
       </c>
       <c r="F490" t="s">
-        <v>36</v>
-      </c>
-      <c r="G490" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G490" t="s"/>
       <c r="H490" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14864,13 +13811,11 @@
         <v>10</v>
       </c>
       <c r="F491" t="s">
-        <v>14</v>
-      </c>
-      <c r="G491" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G491" t="s"/>
       <c r="H491" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14890,13 +13835,11 @@
         <v>10</v>
       </c>
       <c r="F492" t="s">
-        <v>36</v>
-      </c>
-      <c r="G492" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G492" t="s"/>
       <c r="H492" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14916,13 +13859,11 @@
         <v>10</v>
       </c>
       <c r="F493" t="s">
-        <v>14</v>
-      </c>
-      <c r="G493" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G493" t="s"/>
       <c r="H493" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14942,13 +13883,11 @@
         <v>10</v>
       </c>
       <c r="F494" t="s">
-        <v>36</v>
-      </c>
-      <c r="G494" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G494" t="s"/>
       <c r="H494" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14968,13 +13907,11 @@
         <v>10</v>
       </c>
       <c r="F495" t="s">
-        <v>14</v>
-      </c>
-      <c r="G495" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G495" t="s"/>
       <c r="H495" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14994,13 +13931,11 @@
         <v>10</v>
       </c>
       <c r="F496" t="s">
-        <v>36</v>
-      </c>
-      <c r="G496" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G496" t="s"/>
       <c r="H496" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15020,13 +13955,11 @@
         <v>10</v>
       </c>
       <c r="F497" t="s">
-        <v>14</v>
-      </c>
-      <c r="G497" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G497" t="s"/>
       <c r="H497" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15046,13 +13979,11 @@
         <v>10</v>
       </c>
       <c r="F498" t="s">
-        <v>36</v>
-      </c>
-      <c r="G498" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G498" t="s"/>
       <c r="H498" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15072,13 +14003,11 @@
         <v>10</v>
       </c>
       <c r="F499" t="s">
-        <v>14</v>
-      </c>
-      <c r="G499" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G499" t="s"/>
       <c r="H499" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15098,13 +14027,11 @@
         <v>10</v>
       </c>
       <c r="F500" t="s">
-        <v>36</v>
-      </c>
-      <c r="G500" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G500" t="s"/>
       <c r="H500" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15124,13 +14051,11 @@
         <v>10</v>
       </c>
       <c r="F501" t="s">
-        <v>14</v>
-      </c>
-      <c r="G501" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G501" t="s"/>
       <c r="H501" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15150,13 +14075,11 @@
         <v>10</v>
       </c>
       <c r="F502" t="s">
-        <v>36</v>
-      </c>
-      <c r="G502" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G502" t="s"/>
       <c r="H502" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15176,13 +14099,11 @@
         <v>10</v>
       </c>
       <c r="F503" t="s">
-        <v>14</v>
-      </c>
-      <c r="G503" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G503" t="s"/>
       <c r="H503" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15202,13 +14123,11 @@
         <v>10</v>
       </c>
       <c r="F504" t="s">
-        <v>36</v>
-      </c>
-      <c r="G504" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G504" t="s"/>
       <c r="H504" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15228,13 +14147,11 @@
         <v>10</v>
       </c>
       <c r="F505" t="s">
-        <v>14</v>
-      </c>
-      <c r="G505" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G505" t="s"/>
       <c r="H505" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15254,13 +14171,11 @@
         <v>10</v>
       </c>
       <c r="F506" t="s">
-        <v>36</v>
-      </c>
-      <c r="G506" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G506" t="s"/>
       <c r="H506" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15280,13 +14195,11 @@
         <v>10</v>
       </c>
       <c r="F507" t="s">
-        <v>14</v>
-      </c>
-      <c r="G507" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G507" t="s"/>
       <c r="H507" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15306,13 +14219,11 @@
         <v>10</v>
       </c>
       <c r="F508" t="s">
-        <v>36</v>
-      </c>
-      <c r="G508" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G508" t="s"/>
       <c r="H508" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15332,13 +14243,11 @@
         <v>10</v>
       </c>
       <c r="F509" t="s">
-        <v>14</v>
-      </c>
-      <c r="G509" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G509" t="s"/>
       <c r="H509" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15358,13 +14267,11 @@
         <v>10</v>
       </c>
       <c r="F510" t="s">
-        <v>36</v>
-      </c>
-      <c r="G510" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G510" t="s"/>
       <c r="H510" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15384,13 +14291,11 @@
         <v>10</v>
       </c>
       <c r="F511" t="s">
-        <v>14</v>
-      </c>
-      <c r="G511" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G511" t="s"/>
       <c r="H511" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15410,13 +14315,11 @@
         <v>10</v>
       </c>
       <c r="F512" t="s">
-        <v>36</v>
-      </c>
-      <c r="G512" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G512" t="s"/>
       <c r="H512" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15436,13 +14339,11 @@
         <v>10</v>
       </c>
       <c r="F513" t="s">
-        <v>14</v>
-      </c>
-      <c r="G513" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G513" t="s"/>
       <c r="H513" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15462,13 +14363,11 @@
         <v>10</v>
       </c>
       <c r="F514" t="s">
-        <v>36</v>
-      </c>
-      <c r="G514" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G514" t="s"/>
       <c r="H514" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15488,13 +14387,11 @@
         <v>10</v>
       </c>
       <c r="F515" t="s">
-        <v>14</v>
-      </c>
-      <c r="G515" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G515" t="s"/>
       <c r="H515" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15514,13 +14411,11 @@
         <v>10</v>
       </c>
       <c r="F516" t="s">
-        <v>36</v>
-      </c>
-      <c r="G516" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G516" t="s"/>
       <c r="H516" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15540,13 +14435,11 @@
         <v>10</v>
       </c>
       <c r="F517" t="s">
-        <v>14</v>
-      </c>
-      <c r="G517" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G517" t="s"/>
       <c r="H517" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15566,13 +14459,11 @@
         <v>10</v>
       </c>
       <c r="F518" t="s">
-        <v>36</v>
-      </c>
-      <c r="G518" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G518" t="s"/>
       <c r="H518" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15592,13 +14483,11 @@
         <v>10</v>
       </c>
       <c r="F519" t="s">
-        <v>14</v>
-      </c>
-      <c r="G519" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G519" t="s"/>
       <c r="H519" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15618,13 +14507,11 @@
         <v>10</v>
       </c>
       <c r="F520" t="s">
-        <v>36</v>
-      </c>
-      <c r="G520" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G520" t="s"/>
       <c r="H520" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15644,13 +14531,11 @@
         <v>10</v>
       </c>
       <c r="F521" t="s">
-        <v>14</v>
-      </c>
-      <c r="G521" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G521" t="s"/>
       <c r="H521" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15670,13 +14555,11 @@
         <v>10</v>
       </c>
       <c r="F522" t="s">
-        <v>36</v>
-      </c>
-      <c r="G522" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G522" t="s"/>
       <c r="H522" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15696,13 +14579,11 @@
         <v>10</v>
       </c>
       <c r="F523" t="s">
-        <v>14</v>
-      </c>
-      <c r="G523" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G523" t="s"/>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15724,11 +14605,9 @@
       <c r="F524" t="s">
         <v>11</v>
       </c>
-      <c r="G524" t="s">
-        <v>12</v>
-      </c>
+      <c r="G524" t="s"/>
       <c r="H524" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15748,13 +14627,11 @@
         <v>10</v>
       </c>
       <c r="F525" t="s">
-        <v>36</v>
-      </c>
-      <c r="G525" t="s">
-        <v>52</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G525" t="s"/>
       <c r="H525" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15776,11 +14653,9 @@
       <c r="F526" t="s">
         <v>11</v>
       </c>
-      <c r="G526" t="s">
-        <v>12</v>
-      </c>
+      <c r="G526" t="s"/>
       <c r="H526" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15800,13 +14675,11 @@
         <v>10</v>
       </c>
       <c r="F527" t="s">
-        <v>430</v>
-      </c>
-      <c r="G527" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G527" t="s"/>
       <c r="H527" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15828,11 +14701,9 @@
       <c r="F528" t="s">
         <v>11</v>
       </c>
-      <c r="G528" t="s">
-        <v>12</v>
-      </c>
+      <c r="G528" t="s"/>
       <c r="H528" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15852,13 +14723,11 @@
         <v>10</v>
       </c>
       <c r="F529" t="s">
-        <v>430</v>
-      </c>
-      <c r="G529" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G529" t="s"/>
       <c r="H529" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15880,11 +14749,9 @@
       <c r="F530" t="s">
         <v>11</v>
       </c>
-      <c r="G530" t="s">
-        <v>12</v>
-      </c>
+      <c r="G530" t="s"/>
       <c r="H530" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15904,13 +14771,11 @@
         <v>10</v>
       </c>
       <c r="F531" t="s">
-        <v>430</v>
-      </c>
-      <c r="G531" t="s">
-        <v>431</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="G531" t="s"/>
       <c r="H531" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15932,11 +14797,9 @@
       <c r="F532" t="s">
         <v>11</v>
       </c>
-      <c r="G532" t="s">
-        <v>12</v>
-      </c>
+      <c r="G532" t="s"/>
       <c r="H532" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15958,11 +14821,9 @@
       <c r="F533" t="s">
         <v>11</v>
       </c>
-      <c r="G533" t="s">
-        <v>12</v>
-      </c>
+      <c r="G533" t="s"/>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
